--- a/medicine/Mort/Liste_de_cimetières_du_monde/Liste_de_cimetières_du_monde.xlsx
+++ b/medicine/Mort/Liste_de_cimetières_du_monde/Liste_de_cimetières_du_monde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici une liste de cimetières du monde, et de mausolées ou lieux d'inhumations notoirement connus.
 Cet article est une liste de cimetières célèbres, pas des personnes qui y sont inhumées. Afin de ne pas surcharger le contenu de celui-ci, il serait opportun de ne citer que les cimetières qui disposent d'un article du fait de leur célébrité, de rappeler la raison de cette célébrité, et de mentionner seulement dans les articles consacrés auxdits cimetières les noms des personnalités liées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t xml:space="preserve"> Algérie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cimetière d'El Alia, plus grand cimetière d'Algérie
 Cimetière chrétien de Saint-Eugène
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t xml:space="preserve"> Allemagne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>À Berlin
 Cimetière français de Berlin
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t xml:space="preserve"> Arabie saoudite</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cimetière d'Al-Baqî` à Médine</t>
         </is>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t xml:space="preserve"> Argentine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cimetière de la Recoleta</t>
         </is>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +664,9 @@
           <t xml:space="preserve"> Autriche</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cimetière central de Vienne</t>
         </is>
@@ -656,7 +678,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -674,7 +696,9 @@
           <t xml:space="preserve"> Belgique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cimetières civils
 Région de Bruxelles-Capitale
@@ -715,7 +739,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -733,7 +757,9 @@
           <t xml:space="preserve"> Cambodge</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Choeung Ek</t>
         </is>
@@ -745,7 +771,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -763,7 +789,9 @@
           <t xml:space="preserve"> Canada</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Montréal
 Cimetière Notre-Dame-des-Neiges
@@ -784,7 +812,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -802,7 +830,9 @@
           <t xml:space="preserve"> Colombie</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Cimetière central de Bogota</t>
         </is>
@@ -814,7 +844,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -832,7 +862,9 @@
           <t xml:space="preserve"> Croatie</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Mirogoj, Zagreb</t>
         </is>
@@ -844,7 +876,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -862,7 +894,9 @@
           <t xml:space="preserve"> Danemark</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Cimetière Assistens à Copenhague</t>
         </is>
@@ -874,7 +908,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -892,7 +926,9 @@
           <t xml:space="preserve"> Égypte</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Vallée des Rois, près de Louxor
 Cité des morts au Caire, cimetière des sultans mamelouks aujourd’hui habité par des sans logis
@@ -906,7 +942,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -924,7 +960,9 @@
           <t xml:space="preserve"> Espagne</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Cimetière d'Alicante, Alicante
 Cimetière de Montjuïc, Barcelone
@@ -946,7 +984,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -964,7 +1002,9 @@
           <t xml:space="preserve"> États-Unis</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Cimetière militaire national d'Arlington.
 Hollywood Forever Cemetery.
@@ -978,7 +1018,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -996,7 +1036,9 @@
           <t xml:space="preserve"> France</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Cimetière de La Madeleine à Amiens
 Cimetière de Bonifacio
@@ -1006,7 +1048,7 @@
 Cimetière Saint-Pierre à Marseille
 Cimetière du château à Nice
 Cimetière marin de Sète
-À Lyon, Cimetière de Loyasse, créé en 1807, le plus ancien cimetière en activité de la ville ; de nombreux lyonnais illustres s'y trouvent[1]
+À Lyon, Cimetière de Loyasse, créé en 1807, le plus ancien cimetière en activité de la ville ; de nombreux lyonnais illustres s'y trouvent
 À Nantes :
 Cimetière Miséricorde
 Cimetière La Bouteillerie
@@ -1040,7 +1082,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1058,7 +1100,9 @@
           <t xml:space="preserve"> Géorgie</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Cimetière arménien de Tbilissi</t>
         </is>
@@ -1070,7 +1114,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1088,7 +1132,9 @@
           <t xml:space="preserve"> Grèce</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Cimetière juif de Salonique</t>
         </is>
@@ -1100,7 +1146,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1118,7 +1164,9 @@
           <t xml:space="preserve"> Guinée</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Cimetière de Cameroun</t>
         </is>
@@ -1130,7 +1178,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1148,7 +1196,9 @@
           <t xml:space="preserve"> Hongrie</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Cimetière de Farkasrét à Budapest</t>
         </is>
@@ -1160,7 +1210,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1178,7 +1228,9 @@
           <t xml:space="preserve"> Inde</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Cimetière catholique, à Agra
 Taj Mahal à Âgrâ
@@ -1194,7 +1246,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1212,7 +1264,9 @@
           <t xml:space="preserve"> Iran</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Tombe de Cyrus le Grand à Pasargades
 Téhéran
@@ -1229,7 +1283,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1247,7 +1301,9 @@
           <t xml:space="preserve"> Indonésie</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Cimetière royal d'Imogiri</t>
         </is>
@@ -1259,7 +1315,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1277,7 +1333,9 @@
           <t xml:space="preserve"> Israël</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Jérusalem
 Har Hamenouhot
@@ -1291,7 +1349,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1309,7 +1367,9 @@
           <t xml:space="preserve"> Italie</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Catacombes capucines de Palerme
 Rome
@@ -1329,7 +1389,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1347,7 +1407,9 @@
           <t xml:space="preserve"> Lituanie</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Cimetière des prisonniers soviétiques de Vilnius
 Cimetière Sainte-Euphrosyne de Vilnius</t>
@@ -1360,7 +1422,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1378,7 +1440,9 @@
           <t xml:space="preserve"> Monaco</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Cimetière de Monaco
 Cathédrale de Monaco : Grace Kelly</t>
@@ -1391,7 +1455,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1409,7 +1473,9 @@
           <t xml:space="preserve"> Ouzbékistan</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>Samarcande :
 La nécropole Chah-e-Zindeh
@@ -1423,7 +1489,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1441,7 +1507,9 @@
           <t xml:space="preserve"> Pologne</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Varsovie
 Cimetière de Powązki
@@ -1458,7 +1526,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1476,7 +1544,9 @@
           <t xml:space="preserve"> Portugal</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t xml:space="preserve">Lisbonne
 Monastère des Hiéronymites
@@ -1494,7 +1564,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1512,7 +1582,9 @@
           <t xml:space="preserve"> République démocratique du Congo</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t>Kinshasa
 Cimetière de la Gombe
@@ -1530,7 +1602,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1548,7 +1620,9 @@
           <t xml:space="preserve"> République tchèque</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t>Prague
 Vieux cimetière juif
@@ -1566,7 +1640,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1584,7 +1658,9 @@
           <t xml:space="preserve"> Roumanie</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
         <is>
           <t>Cimetière joyeux de Săpânța
 Cimetière Bellu de Bucarest
@@ -1598,7 +1674,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1616,7 +1692,9 @@
           <t xml:space="preserve"> Royaume-Uni</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t>Londres
 Cimetière de Bunhill Fields,
@@ -1632,7 +1710,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1650,7 +1728,9 @@
           <t xml:space="preserve"> Russie</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t>Moscou
 Cimetière de Novodiévitchi
@@ -1668,7 +1748,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1686,7 +1766,9 @@
           <t xml:space="preserve"> Rwanda</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
         <is>
           <t>Cimetière de Remera, Kigali</t>
         </is>
@@ -1698,7 +1780,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1716,7 +1798,9 @@
           <t xml:space="preserve"> Serbie</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
         <is>
           <t>Nouveau cimetière de Belgrade</t>
         </is>
@@ -1728,7 +1812,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1746,7 +1830,9 @@
           <t xml:space="preserve"> Slovénie</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
         <is>
           <t>Cimetière de Kostanjevica (Nova Gorica) : Charles X de France, son fils aîné le dauphin (« Louis XIX », comte de Marnes), la dauphine Marie-Thérèse de France (comtesse de Marnes), Marie-Thérèse de Modène (comtesse de Chambord), Henri d'Artois (« Henri V », comte de Chambord), Louise d'Artois (duchesse de Parme)</t>
         </is>
@@ -1758,7 +1844,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1776,7 +1862,9 @@
           <t xml:space="preserve"> Suisse</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
         <is>
           <t>Genève
 Cimetière du Grand-Lancy
@@ -1794,7 +1882,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1812,7 +1900,9 @@
           <t xml:space="preserve"> Suède</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
         <is>
           <t>Stockholm
 Cimetière boisé de Stockholm (Skogskyrkogården, inscrit sur la liste du Patrimoine mondial de l'Unesco : liste du patrimoine mondial en Suède)
@@ -1826,7 +1916,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1844,7 +1934,9 @@
           <t xml:space="preserve"> Tunisie</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
         <is>
           <t>Cimetière du Djellaz : le plus grand cimetière de Tunisie
 Tourbet El Bey : le cimetière où presque tous les beys Husseinites sont inhumés
@@ -1861,7 +1953,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1879,7 +1971,9 @@
           <t xml:space="preserve"> Turquie</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
         <is>
           <t>Église des Saints-Apôtres de Constantinople, tombeaux des empereurs et des patriarches, aujourd'hui détruite et remplacée par la mosquée Fatih à Istanbul
 Mausolée d'Halicarnasse, près de Bodrum - l'une des Sept Merveilles du monde antique, aujourd'hui détruit</t>
@@ -1892,7 +1986,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Liste_de_cimeti%C3%A8res_du_monde</t>
+          <t>Liste_de_cimetières_du_monde</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1910,7 +2004,9 @@
           <t xml:space="preserve"> Viêt Nam</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
         <is>
           <t>Mausolée de Hô Chi Minh, à Hanoï, place Ba Dinh</t>
         </is>
